--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis_phd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAA7CC1A-3AAC-4ED6-BC3A-879CE16D4FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04367B0B-B149-4C2E-8CC0-6E28A3F86AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{80965360-D4CE-45AE-93D2-EFDF628059F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Optimization parameters</t>
   </si>
@@ -57,10 +57,33 @@
 </t>
   </si>
   <si>
-    <t>power , rb allocation, punctured tti for urllc</t>
-  </si>
-  <si>
     <t>convex optimization and DRL</t>
+  </si>
+  <si>
+    <t>power, PRB allocation, punctured tti for URLLC</t>
+  </si>
+  <si>
+    <t>Multi-Agent Deep Reinforcement Learning Based
+Resource Allocation for Heterogeneous QoS
+Guarantees for Vehicular Networks</t>
+  </si>
+  <si>
+    <t>a multi-agent
+deep reinforcement learning based resource allocation framework
+is developed to jointly optimize the channel allocation and power
+control to satisfy the heterogeneous Quality of Service (QoS) requirements in heterogeneous vehicular networks.</t>
+  </si>
+  <si>
+    <t>power, PRB allocation of VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum rate of two types UE (vehicle and user)
+st:max  probability of error not exceed threshold, maximum probability of delay not exceed threshold.
+Each vehicle UE have just one RB
+and all CUE(static user) have their own resource block for theirself and CU user does not have any interference on each other. </t>
+  </si>
+  <si>
+    <t>multi agent ddpg (actor critic algorithm)</t>
   </si>
 </sst>
 </file>
@@ -150,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -179,11 +202,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,7 +532,7 @@
   <dimension ref="B5:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,23 +573,39 @@
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="6"/>
+    <row r="7" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E8" s="11"/>
+      <c r="E8" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis_phd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04367B0B-B149-4C2E-8CC0-6E28A3F86AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4704DD6-392A-43D4-9926-51C21687F5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{80965360-D4CE-45AE-93D2-EFDF628059F9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Optimization parameters</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>multi agent ddpg (actor critic algorithm)</t>
+  </si>
+  <si>
+    <t>RAN Resource Slicing in 5G Using Multi-Agent Correlated Q-Learning</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -214,6 +217,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,7 +607,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="10"/>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis_phd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\phd-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4704DD6-392A-43D4-9926-51C21687F5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{80965360-D4CE-45AE-93D2-EFDF628059F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Optimization parameters</t>
   </si>
@@ -88,12 +87,69 @@
   <si>
     <t>RAN Resource Slicing in 5G Using Multi-Agent Correlated Q-Learning</t>
   </si>
+  <si>
+    <t>allocation of RB based on the packet arrived in each time slot, for eMBB and URLLC slices, firstly allocate RB to theslices of differetn types and then allocate to users according to the rewards that for eMBB is to maximize sum-rate and for URLLC is to minimize delay</t>
+  </si>
+  <si>
+    <t>maximum sum-rate for eMBB and minimum Total delay (transmission delay) for URLLC</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>nash-q learning, corrolated q-learning, Latency-Reliability-Throughput Q-learning
+(LRTQ) methods, and the priority proportional fairness (PPF)
+algorithm</t>
+  </si>
+  <si>
+    <t>Corrolated q-learning is best answer here</t>
+  </si>
+  <si>
+    <t>The proposed multi-agent DRL resource allocation framework is based on centralized learning and decentralized execution, which combines the advantages of value function-based and policy search-based reinforcement
+learning methods to improve the speed of convergence and
+the effect of learning.</t>
+  </si>
+  <si>
+    <t>Here we have two time-scale, a two-phase-framework, including eMBB resource allocation and URLLC
+scheduling phases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligent Radio Access Network Slicing for Service Provisioning in 6G: A Hierarchical Deep Reinforcement Learning Approach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">proposes a new intelligent RAN slicing strategy with
+two-layered control granularity, which aims at maximizing both
+the long-term QoS of services and spectrum efficiency (SE) of
+slices. </t>
+  </si>
+  <si>
+    <t>Designing a RAN slicing strategy with multiple time and
+resource granularities to accommodate the time-varying
+network conditions and diverse QoS requirements.</t>
+  </si>
+  <si>
+    <t>More information about paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximize the QoS (formula based on rate, delay and probability of error) with the constraint of maximum power, min and max of rate </t>
+  </si>
+  <si>
+    <t>power, RB (find best policy for upper and lower level to assigne resources to slices )</t>
+  </si>
+  <si>
+    <t>the modified deep deterministic
+policy gradient (DDPG) and double deep-Q-network algorithm</t>
+  </si>
+  <si>
+    <t>It has two timescale, and since that it has two level the upper and the lower level. the proposed method consists of an upper-level controller to ensure the QoS performance, which enforces loose control by
+performing adaptive slice configuration according to the longterm dynamics of service traffic. The lower-level controller is to improve SE of slices, by tightly scheduling radio resources to users at the small time-scale.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +175,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242021"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -190,12 +270,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -214,12 +288,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -227,6 +313,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -534,29 +625,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3923645C-D88B-4BAC-BD0E-411D126D8690}">
-  <dimension ref="B5:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="12" customWidth="1"/>
+    <col min="7" max="8" width="27.28515625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -568,53 +661,117 @@
       <c r="F5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
+      <c r="H5" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="2:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\phd-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis_phd\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B41119-D8E3-4FC0-A9F0-585A3575EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Optimization parameters</t>
   </si>
@@ -134,21 +135,43 @@
     <t xml:space="preserve">maximize the QoS (formula based on rate, delay and probability of error) with the constraint of maximum power, min and max of rate </t>
   </si>
   <si>
-    <t>power, RB (find best policy for upper and lower level to assigne resources to slices )</t>
-  </si>
-  <si>
-    <t>the modified deep deterministic
-policy gradient (DDPG) and double deep-Q-network algorithm</t>
-  </si>
-  <si>
     <t>It has two timescale, and since that it has two level the upper and the lower level. the proposed method consists of an upper-level controller to ensure the QoS performance, which enforces loose control by
 performing adaptive slice configuration according to the longterm dynamics of service traffic. The lower-level controller is to improve SE of slices, by tightly scheduling radio resources to users at the small time-scale.</t>
+  </si>
+  <si>
+    <t>Intelligent Resource Scheduling for 5G Radio
+Access Network Slicing</t>
+  </si>
+  <si>
+    <t>propose an intelligent resource scheduling strategy (iRSS) for 5G RAN slicing. The main idea of iRSS is to exploit a collaborative learning framework which consists of deep learning (DL) in conjunction with Reinforcement Learning
+(RL)</t>
+  </si>
+  <si>
+    <t>DL is used to perform large time-scale resource
+allocation, while RL is used to perform on-line resource scheduling for tackling small time-scale network dynamics, including
+inaccurate prediction and unexpected network states</t>
+  </si>
+  <si>
+    <t>There is two problem. 1: resource allocation of large time scale 2. RA of small scale, In the first step, we want to minimize the mean-square-error (MSE) between the predicted value of assigned resource block  and the actual traffic volume of it. In the second step we want to minimize assigned RB subject to the thresholds we need</t>
+  </si>
+  <si>
+    <t>predicted value of assigned RB (pre assignement)- large time scale, fro small time scale-  number of slices and the time interval</t>
+  </si>
+  <si>
+    <t>LTSM -large time scale, Q-learning, classic AC and HRSA algorithms for small time scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first the modified deep deterministic
+policy gradient (DDPG) for lower level and then the double deep-Q-network algorithm for upper level </t>
+  </si>
+  <si>
+    <t>power, RB (find best policy for upper and lower level to assigne resources to slices ) for lower level and the guarantee bit rate and maximum rate for upper level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,11 +648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,19 +777,41 @@
         <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis_phd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B41119-D8E3-4FC0-A9F0-585A3575EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BEF538-950F-45C4-9110-3447C4803CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Optimization parameters</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>power, RB (find best policy for upper and lower level to assigne resources to slices ) for lower level and the guarantee bit rate and maximum rate for upper level</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Distributed-allocation-constraints-frequency-selective-interference/dp/8854811416</t>
+  </si>
+  <si>
+    <t>Daniel palomar</t>
+  </si>
+  <si>
+    <t>Wei yu uoft</t>
   </si>
 </sst>
 </file>
@@ -649,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:H11"/>
+  <dimension ref="A2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,6 +676,21 @@
     <col min="9" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Optimization parameters</t>
   </si>
@@ -143,6 +143,18 @@
   <si>
     <t>It has two timescale, and since that it has two level the upper and the lower level. the proposed method consists of an upper-level controller to ensure the QoS performance, which enforces loose control by
 performing adaptive slice configuration according to the longterm dynamics of service traffic. The lower-level controller is to improve SE of slices, by tightly scheduling radio resources to users at the small time-scale.</t>
+  </si>
+  <si>
+    <t>Learning from Peers: Transfer Reinforcement Learning for Joint Radio and Cache Resource Allocation in 5G Network Slicing</t>
+  </si>
+  <si>
+    <t>propose a transfer reinforcement learning (TRL) scheme for joint radio and cache resources allocation to serve 5G RAN slicing</t>
+  </si>
+  <si>
+    <t>maximum sum-rate for eMBB and minimum Total delay (transmission delay) for URLLC, subject to the limitation in number of RBs, maximum number of error in caching</t>
+  </si>
+  <si>
+    <t>Q-tranfer learning, PPF TRL, Q learning</t>
   </si>
 </sst>
 </file>
@@ -256,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -306,6 +318,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +781,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
     </row>
